--- a/18-dars/opshiriq.xlsx
+++ b/18-dars/opshiriq.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>F.I.O</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>❓Ishchilarning rejaning bajarganlik ko'rsatkichini aniqlang, rejasi mavjud bo'lmaganlarni alohida ajratib ko'rsating.</t>
+  </si>
+  <si>
+    <t>Reja bajarilmagan</t>
+  </si>
+  <si>
+    <t>Reja bajarilgan</t>
+  </si>
+  <si>
+    <t>Reja mavjud emas</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -190,6 +199,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,15 +486,15 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -521,7 +533,9 @@
       <c r="C3" s="5">
         <v>4628</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -534,7 +548,9 @@
       <c r="C4" s="5">
         <v>8322</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -545,7 +561,9 @@
       <c r="C5" s="7">
         <v>1290</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,8 +731,8 @@
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
     </row>
